--- a/target/test-classes/Testex.xlsx
+++ b/target/test-classes/Testex.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aksha\eclipse-workspace\com.akm\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\com.akm2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF8A0DD-A3E0-4C63-9235-372BC4BBE673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329F2BD4-4A2B-460D-92F3-14D8ED8C9ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t/>
   </si>
@@ -51,16 +51,13 @@
     <t>CreateOrg</t>
   </si>
   <si>
-    <t>Skilrrary</t>
-  </si>
-  <si>
     <t>CreateOrgwithInd</t>
   </si>
   <si>
     <t>Altruist</t>
   </si>
   <si>
-    <t>BPO</t>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -396,7 +393,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -425,7 +422,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -447,13 +444,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="1"/>
     </row>
